--- a/input_data/Industry_Shipments/Other_Countries/Shipments_IronSteel.xlsx
+++ b/input_data/Industry_Shipments/Other_Countries/Shipments_IronSteel.xlsx
@@ -1,11 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20385"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20391"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8044C044-D41F-4E54-9354-E1A24123F253}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AFD6352E-6369-4CC8-BB72-16E2A0AA7364}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12648" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12648" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="China" sheetId="2" r:id="rId1"/>
@@ -95,7 +95,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="23">
   <si>
     <t>UK</t>
   </si>
@@ -116,18 +116,6 @@
   </si>
   <si>
     <t>China</t>
-  </si>
-  <si>
-    <t>(unpublished data by Tao Wang; ask if we can use this actually!!!)</t>
-  </si>
-  <si>
-    <t>heck with Stefan; maybe also additional data</t>
-  </si>
-  <si>
-    <t>Laut DeepL noch mehr Kategorien erhältlich:</t>
-  </si>
-  <si>
-    <t>Jan: DeepL</t>
   </si>
   <si>
     <t>Other</t>
@@ -167,6 +155,15 @@
   </si>
   <si>
     <t>products</t>
+  </si>
+  <si>
+    <t>According to translation in DeepL additional categories available:</t>
+  </si>
+  <si>
+    <t>(data by Tao Wang associated with Pauliuk et al. 2012)</t>
+  </si>
+  <si>
+    <t>(Pauliuk et al. 2013 - SI)</t>
   </si>
 </sst>
 </file>
@@ -1729,8 +1726,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E51CEE26-0E1E-4538-A937-E6DD2D6B19DC}">
   <dimension ref="A1:F14"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F2" sqref="F2:F14"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2073,925 +2070,925 @@
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A1" t="str">
+        <f>rawData!A86</f>
+        <v>Year</v>
+      </c>
+      <c r="B1" t="str">
         <f>rawData!B86</f>
-        <v>Year</v>
-      </c>
-      <c r="B1" t="str">
+        <v>Transportation</v>
+      </c>
+      <c r="C1" t="str">
         <f>rawData!C86</f>
-        <v>Transportation</v>
-      </c>
-      <c r="C1" t="str">
+        <v>Machinery</v>
+      </c>
+      <c r="D1" t="str">
         <f>rawData!D86</f>
-        <v>Machinery</v>
-      </c>
-      <c r="D1" t="str">
+        <v>Construction</v>
+      </c>
+      <c r="E1" t="str">
         <f>rawData!E86</f>
-        <v>Construction</v>
-      </c>
-      <c r="E1" t="str">
-        <f>rawData!F86</f>
         <v>Products</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A2">
+        <f>rawData!A87</f>
+        <v>1960</v>
+      </c>
+      <c r="B2">
         <f>rawData!B87</f>
-        <v>1960</v>
-      </c>
-      <c r="B2">
+        <v>0.25</v>
+      </c>
+      <c r="C2">
         <f>rawData!C87</f>
-        <v>0.25</v>
-      </c>
-      <c r="C2">
+        <v>0.28999999999999998</v>
+      </c>
+      <c r="D2">
         <f>rawData!D87</f>
-        <v>0.28999999999999998</v>
-      </c>
-      <c r="D2">
+        <v>0.32</v>
+      </c>
+      <c r="E2">
         <f>rawData!E87</f>
-        <v>0.32</v>
-      </c>
-      <c r="E2">
-        <f>rawData!F87</f>
         <v>0.14000000000000001</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A3">
+        <f>rawData!A88</f>
+        <v>1961</v>
+      </c>
+      <c r="B3">
         <f>rawData!B88</f>
-        <v>1961</v>
-      </c>
-      <c r="B3">
+        <v>0.24</v>
+      </c>
+      <c r="C3">
         <f>rawData!C88</f>
-        <v>0.24</v>
-      </c>
-      <c r="C3">
+        <v>0.28000000000000003</v>
+      </c>
+      <c r="D3">
         <f>rawData!D88</f>
-        <v>0.28000000000000003</v>
-      </c>
-      <c r="D3">
+        <v>0.33</v>
+      </c>
+      <c r="E3">
         <f>rawData!E88</f>
-        <v>0.33</v>
-      </c>
-      <c r="E3">
-        <f>rawData!F88</f>
         <v>0.15</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A4">
+        <f>rawData!A89</f>
+        <v>1962</v>
+      </c>
+      <c r="B4">
         <f>rawData!B89</f>
-        <v>1962</v>
-      </c>
-      <c r="B4">
+        <v>0.25</v>
+      </c>
+      <c r="C4">
         <f>rawData!C89</f>
-        <v>0.25</v>
-      </c>
-      <c r="C4">
+        <v>0.28000000000000003</v>
+      </c>
+      <c r="D4">
         <f>rawData!D89</f>
-        <v>0.28000000000000003</v>
-      </c>
-      <c r="D4">
+        <v>0.31</v>
+      </c>
+      <c r="E4">
         <f>rawData!E89</f>
-        <v>0.31</v>
-      </c>
-      <c r="E4">
-        <f>rawData!F89</f>
         <v>0.15</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A5">
+        <f>rawData!A90</f>
+        <v>1963</v>
+      </c>
+      <c r="B5">
         <f>rawData!B90</f>
-        <v>1963</v>
-      </c>
-      <c r="B5">
+        <v>0.26</v>
+      </c>
+      <c r="C5">
         <f>rawData!C90</f>
-        <v>0.26</v>
-      </c>
-      <c r="C5">
+        <v>0.28999999999999998</v>
+      </c>
+      <c r="D5">
         <f>rawData!D90</f>
-        <v>0.28999999999999998</v>
-      </c>
-      <c r="D5">
+        <v>0.31</v>
+      </c>
+      <c r="E5">
         <f>rawData!E90</f>
-        <v>0.31</v>
-      </c>
-      <c r="E5">
-        <f>rawData!F90</f>
         <v>0.15</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A6">
+        <f>rawData!A91</f>
+        <v>1964</v>
+      </c>
+      <c r="B6">
         <f>rawData!B91</f>
-        <v>1964</v>
-      </c>
-      <c r="B6">
+        <v>0.25</v>
+      </c>
+      <c r="C6">
         <f>rawData!C91</f>
-        <v>0.25</v>
-      </c>
-      <c r="C6">
+        <v>0.31</v>
+      </c>
+      <c r="D6">
         <f>rawData!D91</f>
-        <v>0.31</v>
-      </c>
-      <c r="D6">
+        <v>0.3</v>
+      </c>
+      <c r="E6">
         <f>rawData!E91</f>
-        <v>0.3</v>
-      </c>
-      <c r="E6">
-        <f>rawData!F91</f>
         <v>0.15</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A7">
+        <f>rawData!A92</f>
+        <v>1965</v>
+      </c>
+      <c r="B7">
         <f>rawData!B92</f>
-        <v>1965</v>
-      </c>
-      <c r="B7">
+        <v>0.24</v>
+      </c>
+      <c r="C7">
         <f>rawData!C92</f>
-        <v>0.24</v>
-      </c>
-      <c r="C7">
+        <v>0.31</v>
+      </c>
+      <c r="D7">
         <f>rawData!D92</f>
         <v>0.31</v>
       </c>
-      <c r="D7">
+      <c r="E7">
         <f>rawData!E92</f>
-        <v>0.31</v>
-      </c>
-      <c r="E7">
-        <f>rawData!F92</f>
         <v>0.14000000000000001</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A8">
+        <f>rawData!A93</f>
+        <v>1966</v>
+      </c>
+      <c r="B8">
         <f>rawData!B93</f>
-        <v>1966</v>
-      </c>
-      <c r="B8">
+        <v>0</v>
+      </c>
+      <c r="C8">
         <f>rawData!C93</f>
         <v>0</v>
       </c>
-      <c r="C8">
+      <c r="D8">
         <f>rawData!D93</f>
         <v>0</v>
       </c>
-      <c r="D8">
+      <c r="E8">
         <f>rawData!E93</f>
-        <v>0</v>
-      </c>
-      <c r="E8">
-        <f>rawData!F93</f>
         <v>0</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A9">
+        <f>rawData!A94</f>
+        <v>1967</v>
+      </c>
+      <c r="B9">
         <f>rawData!B94</f>
-        <v>1967</v>
-      </c>
-      <c r="B9">
+        <v>0</v>
+      </c>
+      <c r="C9">
         <f>rawData!C94</f>
         <v>0</v>
       </c>
-      <c r="C9">
+      <c r="D9">
         <f>rawData!D94</f>
         <v>0</v>
       </c>
-      <c r="D9">
+      <c r="E9">
         <f>rawData!E94</f>
-        <v>0</v>
-      </c>
-      <c r="E9">
-        <f>rawData!F94</f>
         <v>0</v>
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A10">
+        <f>rawData!A95</f>
+        <v>1968</v>
+      </c>
+      <c r="B10">
         <f>rawData!B95</f>
-        <v>1968</v>
-      </c>
-      <c r="B10">
+        <v>0</v>
+      </c>
+      <c r="C10">
         <f>rawData!C95</f>
         <v>0</v>
       </c>
-      <c r="C10">
+      <c r="D10">
         <f>rawData!D95</f>
         <v>0</v>
       </c>
-      <c r="D10">
+      <c r="E10">
         <f>rawData!E95</f>
-        <v>0</v>
-      </c>
-      <c r="E10">
-        <f>rawData!F95</f>
         <v>0</v>
       </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A11">
+        <f>rawData!A96</f>
+        <v>1969</v>
+      </c>
+      <c r="B11">
         <f>rawData!B96</f>
-        <v>1969</v>
-      </c>
-      <c r="B11">
+        <v>0</v>
+      </c>
+      <c r="C11">
         <f>rawData!C96</f>
         <v>0</v>
       </c>
-      <c r="C11">
+      <c r="D11">
         <f>rawData!D96</f>
         <v>0</v>
       </c>
-      <c r="D11">
+      <c r="E11">
         <f>rawData!E96</f>
-        <v>0</v>
-      </c>
-      <c r="E11">
-        <f>rawData!F96</f>
         <v>0</v>
       </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A12">
+        <f>rawData!A97</f>
+        <v>1970</v>
+      </c>
+      <c r="B12">
         <f>rawData!B97</f>
-        <v>1970</v>
-      </c>
-      <c r="B12">
+        <v>0.31</v>
+      </c>
+      <c r="C12">
         <f>rawData!C97</f>
-        <v>0.31</v>
-      </c>
-      <c r="C12">
+        <v>0.22</v>
+      </c>
+      <c r="D12">
         <f>rawData!D97</f>
-        <v>0.22</v>
-      </c>
-      <c r="D12">
+        <v>0.24</v>
+      </c>
+      <c r="E12">
         <f>rawData!E97</f>
-        <v>0.24</v>
-      </c>
-      <c r="E12">
-        <f>rawData!F97</f>
         <v>0.23</v>
       </c>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A13">
+        <f>rawData!A98</f>
+        <v>1971</v>
+      </c>
+      <c r="B13">
         <f>rawData!B98</f>
-        <v>1971</v>
-      </c>
-      <c r="B13">
+        <v>0</v>
+      </c>
+      <c r="C13">
         <f>rawData!C98</f>
         <v>0</v>
       </c>
-      <c r="C13">
+      <c r="D13">
         <f>rawData!D98</f>
         <v>0</v>
       </c>
-      <c r="D13">
+      <c r="E13">
         <f>rawData!E98</f>
-        <v>0</v>
-      </c>
-      <c r="E13">
-        <f>rawData!F98</f>
         <v>0</v>
       </c>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A14">
+        <f>rawData!A99</f>
+        <v>1972</v>
+      </c>
+      <c r="B14">
         <f>rawData!B99</f>
-        <v>1972</v>
-      </c>
-      <c r="B14">
+        <v>0</v>
+      </c>
+      <c r="C14">
         <f>rawData!C99</f>
         <v>0</v>
       </c>
-      <c r="C14">
+      <c r="D14">
         <f>rawData!D99</f>
         <v>0</v>
       </c>
-      <c r="D14">
+      <c r="E14">
         <f>rawData!E99</f>
-        <v>0</v>
-      </c>
-      <c r="E14">
-        <f>rawData!F99</f>
         <v>0</v>
       </c>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A15">
+        <f>rawData!A100</f>
+        <v>1973</v>
+      </c>
+      <c r="B15">
         <f>rawData!B100</f>
-        <v>1973</v>
-      </c>
-      <c r="B15">
+        <v>0</v>
+      </c>
+      <c r="C15">
         <f>rawData!C100</f>
         <v>0</v>
       </c>
-      <c r="C15">
+      <c r="D15">
         <f>rawData!D100</f>
         <v>0</v>
       </c>
-      <c r="D15">
+      <c r="E15">
         <f>rawData!E100</f>
-        <v>0</v>
-      </c>
-      <c r="E15">
-        <f>rawData!F100</f>
         <v>0</v>
       </c>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A16">
+        <f>rawData!A101</f>
+        <v>1974</v>
+      </c>
+      <c r="B16">
         <f>rawData!B101</f>
-        <v>1974</v>
-      </c>
-      <c r="B16">
+        <v>0.27</v>
+      </c>
+      <c r="C16">
         <f>rawData!C101</f>
-        <v>0.27</v>
-      </c>
-      <c r="C16">
+        <v>0.2</v>
+      </c>
+      <c r="D16">
         <f>rawData!D101</f>
-        <v>0.2</v>
-      </c>
-      <c r="D16">
+        <v>0.33</v>
+      </c>
+      <c r="E16">
         <f>rawData!E101</f>
-        <v>0.33</v>
-      </c>
-      <c r="E16">
-        <f>rawData!F101</f>
         <v>0.2</v>
       </c>
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A17">
+        <f>rawData!A102</f>
+        <v>1975</v>
+      </c>
+      <c r="B17">
         <f>rawData!B102</f>
-        <v>1975</v>
-      </c>
-      <c r="B17">
+        <v>0.23</v>
+      </c>
+      <c r="C17">
         <f>rawData!C102</f>
-        <v>0.23</v>
-      </c>
-      <c r="C17">
+        <v>0.24</v>
+      </c>
+      <c r="D17">
         <f>rawData!D102</f>
-        <v>0.24</v>
-      </c>
-      <c r="D17">
+        <v>0.32</v>
+      </c>
+      <c r="E17">
         <f>rawData!E102</f>
-        <v>0.32</v>
-      </c>
-      <c r="E17">
-        <f>rawData!F102</f>
         <v>0.21</v>
       </c>
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A18">
+        <f>rawData!A103</f>
+        <v>1976</v>
+      </c>
+      <c r="B18">
         <f>rawData!B103</f>
-        <v>1976</v>
-      </c>
-      <c r="B18">
+        <v>0.23</v>
+      </c>
+      <c r="C18">
         <f>rawData!C103</f>
-        <v>0.23</v>
-      </c>
-      <c r="C18">
+        <v>0.24</v>
+      </c>
+      <c r="D18">
         <f>rawData!D103</f>
-        <v>0.24</v>
-      </c>
-      <c r="D18">
+        <v>0.3</v>
+      </c>
+      <c r="E18">
         <f>rawData!E103</f>
-        <v>0.3</v>
-      </c>
-      <c r="E18">
-        <f>rawData!F103</f>
         <v>0.23</v>
       </c>
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A19">
+        <f>rawData!A104</f>
+        <v>1977</v>
+      </c>
+      <c r="B19">
         <f>rawData!B104</f>
-        <v>1977</v>
-      </c>
-      <c r="B19">
+        <v>0.23</v>
+      </c>
+      <c r="C19">
         <f>rawData!C104</f>
-        <v>0.23</v>
-      </c>
-      <c r="C19">
+        <v>0.25</v>
+      </c>
+      <c r="D19">
         <f>rawData!D104</f>
-        <v>0.25</v>
-      </c>
-      <c r="D19">
+        <v>0.28999999999999998</v>
+      </c>
+      <c r="E19">
         <f>rawData!E104</f>
-        <v>0.28999999999999998</v>
-      </c>
-      <c r="E19">
-        <f>rawData!F104</f>
         <v>0.23</v>
       </c>
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A20">
+        <f>rawData!A105</f>
+        <v>1978</v>
+      </c>
+      <c r="B20">
         <f>rawData!B105</f>
-        <v>1978</v>
-      </c>
-      <c r="B20">
+        <v>0.22</v>
+      </c>
+      <c r="C20">
         <f>rawData!C105</f>
-        <v>0.22</v>
-      </c>
-      <c r="C20">
+        <v>0.25</v>
+      </c>
+      <c r="D20">
         <f>rawData!D105</f>
-        <v>0.25</v>
-      </c>
-      <c r="D20">
+        <v>0.3</v>
+      </c>
+      <c r="E20">
         <f>rawData!E105</f>
-        <v>0.3</v>
-      </c>
-      <c r="E20">
-        <f>rawData!F105</f>
         <v>0.23</v>
       </c>
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A21">
+        <f>rawData!A106</f>
+        <v>1979</v>
+      </c>
+      <c r="B21">
         <f>rawData!B106</f>
-        <v>1979</v>
-      </c>
-      <c r="B21">
+        <v>0.2</v>
+      </c>
+      <c r="C21">
         <f>rawData!C106</f>
-        <v>0.2</v>
-      </c>
-      <c r="C21">
+        <v>0.24</v>
+      </c>
+      <c r="D21">
         <f>rawData!D106</f>
-        <v>0.24</v>
-      </c>
-      <c r="D21">
+        <v>0.32</v>
+      </c>
+      <c r="E21">
         <f>rawData!E106</f>
-        <v>0.32</v>
-      </c>
-      <c r="E21">
-        <f>rawData!F106</f>
         <v>0.24</v>
       </c>
     </row>
     <row r="22" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A22">
+        <f>rawData!A107</f>
+        <v>1980</v>
+      </c>
+      <c r="B22">
         <f>rawData!B107</f>
-        <v>1980</v>
-      </c>
-      <c r="B22">
+        <v>0.2</v>
+      </c>
+      <c r="C22">
         <f>rawData!C107</f>
-        <v>0.2</v>
-      </c>
-      <c r="C22">
+        <v>0.24</v>
+      </c>
+      <c r="D22">
         <f>rawData!D107</f>
-        <v>0.24</v>
-      </c>
-      <c r="D22">
+        <v>0.32</v>
+      </c>
+      <c r="E22">
         <f>rawData!E107</f>
-        <v>0.32</v>
-      </c>
-      <c r="E22">
-        <f>rawData!F107</f>
         <v>0.24</v>
       </c>
     </row>
     <row r="23" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A23">
+        <f>rawData!A108</f>
+        <v>1981</v>
+      </c>
+      <c r="B23">
         <f>rawData!B108</f>
-        <v>1981</v>
-      </c>
-      <c r="B23">
+        <v>0.19</v>
+      </c>
+      <c r="C23">
         <f>rawData!C108</f>
-        <v>0.19</v>
-      </c>
-      <c r="C23">
+        <v>0.22</v>
+      </c>
+      <c r="D23">
         <f>rawData!D108</f>
-        <v>0.22</v>
-      </c>
-      <c r="D23">
+        <v>0.33</v>
+      </c>
+      <c r="E23">
         <f>rawData!E108</f>
-        <v>0.33</v>
-      </c>
-      <c r="E23">
-        <f>rawData!F108</f>
         <v>0.26</v>
       </c>
     </row>
     <row r="24" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A24">
+        <f>rawData!A109</f>
+        <v>1982</v>
+      </c>
+      <c r="B24">
         <f>rawData!B109</f>
-        <v>1982</v>
-      </c>
-      <c r="B24">
+        <v>0.19</v>
+      </c>
+      <c r="C24">
         <f>rawData!C109</f>
-        <v>0.19</v>
-      </c>
-      <c r="C24">
+        <v>0.22</v>
+      </c>
+      <c r="D24">
         <f>rawData!D109</f>
-        <v>0.22</v>
-      </c>
-      <c r="D24">
+        <v>0.33</v>
+      </c>
+      <c r="E24">
         <f>rawData!E109</f>
-        <v>0.33</v>
-      </c>
-      <c r="E24">
-        <f>rawData!F109</f>
         <v>0.26</v>
       </c>
     </row>
     <row r="25" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A25">
+        <f>rawData!A110</f>
+        <v>1983</v>
+      </c>
+      <c r="B25">
         <f>rawData!B110</f>
-        <v>1983</v>
-      </c>
-      <c r="B25">
+        <v>0.18</v>
+      </c>
+      <c r="C25">
         <f>rawData!C110</f>
-        <v>0.18</v>
-      </c>
-      <c r="C25">
+        <v>0.22</v>
+      </c>
+      <c r="D25">
         <f>rawData!D110</f>
-        <v>0.22</v>
-      </c>
-      <c r="D25">
+        <v>0.33</v>
+      </c>
+      <c r="E25">
         <f>rawData!E110</f>
-        <v>0.33</v>
-      </c>
-      <c r="E25">
-        <f>rawData!F110</f>
         <v>0.27</v>
       </c>
     </row>
     <row r="26" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A26">
+        <f>rawData!A111</f>
+        <v>1984</v>
+      </c>
+      <c r="B26">
         <f>rawData!B111</f>
-        <v>1984</v>
-      </c>
-      <c r="B26">
+        <v>0.17</v>
+      </c>
+      <c r="C26">
         <f>rawData!C111</f>
-        <v>0.17</v>
-      </c>
-      <c r="C26">
+        <v>0.22</v>
+      </c>
+      <c r="D26">
         <f>rawData!D111</f>
-        <v>0.22</v>
-      </c>
-      <c r="D26">
+        <v>0.32</v>
+      </c>
+      <c r="E26">
         <f>rawData!E111</f>
-        <v>0.32</v>
-      </c>
-      <c r="E26">
-        <f>rawData!F111</f>
         <v>0.28999999999999998</v>
       </c>
     </row>
     <row r="27" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A27">
+        <f>rawData!A112</f>
+        <v>1985</v>
+      </c>
+      <c r="B27">
         <f>rawData!B112</f>
-        <v>1985</v>
-      </c>
-      <c r="B27">
+        <v>0.19</v>
+      </c>
+      <c r="C27">
         <f>rawData!C112</f>
-        <v>0.19</v>
-      </c>
-      <c r="C27">
+        <v>0.24</v>
+      </c>
+      <c r="D27">
         <f>rawData!D112</f>
-        <v>0.24</v>
-      </c>
-      <c r="D27">
+        <v>0.31</v>
+      </c>
+      <c r="E27">
         <f>rawData!E112</f>
-        <v>0.31</v>
-      </c>
-      <c r="E27">
-        <f>rawData!F112</f>
         <v>0.26</v>
       </c>
     </row>
     <row r="28" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A28">
+        <f>rawData!A113</f>
+        <v>1986</v>
+      </c>
+      <c r="B28">
         <f>rawData!B113</f>
-        <v>1986</v>
-      </c>
-      <c r="B28">
+        <v>0.17</v>
+      </c>
+      <c r="C28">
         <f>rawData!C113</f>
-        <v>0.17</v>
-      </c>
-      <c r="C28">
+        <v>0.23</v>
+      </c>
+      <c r="D28">
         <f>rawData!D113</f>
-        <v>0.23</v>
-      </c>
-      <c r="D28">
+        <v>0.34</v>
+      </c>
+      <c r="E28">
         <f>rawData!E113</f>
-        <v>0.34</v>
-      </c>
-      <c r="E28">
-        <f>rawData!F113</f>
         <v>0.26</v>
       </c>
     </row>
     <row r="29" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A29">
+        <f>rawData!A114</f>
+        <v>1987</v>
+      </c>
+      <c r="B29">
         <f>rawData!B114</f>
-        <v>1987</v>
-      </c>
-      <c r="B29">
+        <v>0.17</v>
+      </c>
+      <c r="C29">
         <f>rawData!C114</f>
-        <v>0.17</v>
-      </c>
-      <c r="C29">
+        <v>0.22</v>
+      </c>
+      <c r="D29">
         <f>rawData!D114</f>
-        <v>0.22</v>
-      </c>
-      <c r="D29">
+        <v>0.36</v>
+      </c>
+      <c r="E29">
         <f>rawData!E114</f>
-        <v>0.36</v>
-      </c>
-      <c r="E29">
-        <f>rawData!F114</f>
         <v>0.25</v>
       </c>
     </row>
     <row r="30" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A30">
+        <f>rawData!A115</f>
+        <v>1988</v>
+      </c>
+      <c r="B30">
         <f>rawData!B115</f>
-        <v>1988</v>
-      </c>
-      <c r="B30">
+        <v>0.17</v>
+      </c>
+      <c r="C30">
         <f>rawData!C115</f>
-        <v>0.17</v>
-      </c>
-      <c r="C30">
+        <v>0.21</v>
+      </c>
+      <c r="D30">
         <f>rawData!D115</f>
-        <v>0.21</v>
-      </c>
-      <c r="D30">
+        <v>0.39</v>
+      </c>
+      <c r="E30">
         <f>rawData!E115</f>
-        <v>0.39</v>
-      </c>
-      <c r="E30">
-        <f>rawData!F115</f>
         <v>0.23</v>
       </c>
     </row>
     <row r="31" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A31">
+        <f>rawData!A116</f>
+        <v>1989</v>
+      </c>
+      <c r="B31">
         <f>rawData!B116</f>
-        <v>1989</v>
-      </c>
-      <c r="B31">
+        <v>0.15</v>
+      </c>
+      <c r="C31">
         <f>rawData!C116</f>
-        <v>0.15</v>
-      </c>
-      <c r="C31">
+        <v>0.22</v>
+      </c>
+      <c r="D31">
         <f>rawData!D116</f>
-        <v>0.22</v>
-      </c>
-      <c r="D31">
+        <v>0.41</v>
+      </c>
+      <c r="E31">
         <f>rawData!E116</f>
-        <v>0.41</v>
-      </c>
-      <c r="E31">
-        <f>rawData!F116</f>
         <v>0.22</v>
       </c>
     </row>
     <row r="32" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A32">
+        <f>rawData!A117</f>
+        <v>1990</v>
+      </c>
+      <c r="B32">
         <f>rawData!B117</f>
-        <v>1990</v>
-      </c>
-      <c r="B32">
+        <v>0.17</v>
+      </c>
+      <c r="C32">
         <f>rawData!C117</f>
-        <v>0.17</v>
-      </c>
-      <c r="C32">
+        <v>0.23</v>
+      </c>
+      <c r="D32">
         <f>rawData!D117</f>
-        <v>0.23</v>
-      </c>
-      <c r="D32">
+        <v>0.43</v>
+      </c>
+      <c r="E32">
         <f>rawData!E117</f>
-        <v>0.43</v>
-      </c>
-      <c r="E32">
-        <f>rawData!F117</f>
         <v>0.17</v>
       </c>
     </row>
     <row r="33" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A33">
+        <f>rawData!A118</f>
+        <v>1991</v>
+      </c>
+      <c r="B33">
         <f>rawData!B118</f>
-        <v>1991</v>
-      </c>
-      <c r="B33">
+        <v>0.17</v>
+      </c>
+      <c r="C33">
         <f>rawData!C118</f>
-        <v>0.17</v>
-      </c>
-      <c r="C33">
+        <v>0.21</v>
+      </c>
+      <c r="D33">
         <f>rawData!D118</f>
-        <v>0.21</v>
-      </c>
-      <c r="D33">
+        <v>0.45</v>
+      </c>
+      <c r="E33">
         <f>rawData!E118</f>
-        <v>0.45</v>
-      </c>
-      <c r="E33">
-        <f>rawData!F118</f>
         <v>0.18</v>
       </c>
     </row>
     <row r="34" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A34">
+        <f>rawData!A119</f>
+        <v>1992</v>
+      </c>
+      <c r="B34">
         <f>rawData!B119</f>
-        <v>1992</v>
-      </c>
-      <c r="B34">
+        <v>0.19</v>
+      </c>
+      <c r="C34">
         <f>rawData!C119</f>
-        <v>0.19</v>
-      </c>
-      <c r="C34">
+        <v>0.22</v>
+      </c>
+      <c r="D34">
         <f>rawData!D119</f>
-        <v>0.22</v>
-      </c>
-      <c r="D34">
+        <v>0.41</v>
+      </c>
+      <c r="E34">
         <f>rawData!E119</f>
-        <v>0.41</v>
-      </c>
-      <c r="E34">
-        <f>rawData!F119</f>
         <v>0.18</v>
       </c>
     </row>
     <row r="35" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A35">
+        <f>rawData!A120</f>
+        <v>1993</v>
+      </c>
+      <c r="B35">
         <f>rawData!B120</f>
-        <v>1993</v>
-      </c>
-      <c r="B35">
+        <v>0.23</v>
+      </c>
+      <c r="C35">
         <f>rawData!C120</f>
-        <v>0.23</v>
-      </c>
-      <c r="C35">
+        <v>0.2</v>
+      </c>
+      <c r="D35">
         <f>rawData!D120</f>
-        <v>0.2</v>
-      </c>
-      <c r="D35">
+        <v>0.41</v>
+      </c>
+      <c r="E35">
         <f>rawData!E120</f>
-        <v>0.41</v>
-      </c>
-      <c r="E35">
-        <f>rawData!F120</f>
         <v>0.16</v>
       </c>
     </row>
     <row r="36" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A36">
+        <f>rawData!A121</f>
+        <v>1994</v>
+      </c>
+      <c r="B36">
         <f>rawData!B121</f>
-        <v>1994</v>
-      </c>
-      <c r="B36">
+        <v>0.22</v>
+      </c>
+      <c r="C36">
         <f>rawData!C121</f>
-        <v>0.22</v>
-      </c>
-      <c r="C36">
+        <v>0.2</v>
+      </c>
+      <c r="D36">
         <f>rawData!D121</f>
-        <v>0.2</v>
-      </c>
-      <c r="D36">
+        <v>0.42</v>
+      </c>
+      <c r="E36">
         <f>rawData!E121</f>
-        <v>0.42</v>
-      </c>
-      <c r="E36">
-        <f>rawData!F121</f>
         <v>0.16</v>
       </c>
     </row>
     <row r="37" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A37">
+        <f>rawData!A122</f>
+        <v>1995</v>
+      </c>
+      <c r="B37">
         <f>rawData!B122</f>
-        <v>1995</v>
-      </c>
-      <c r="B37">
+        <v>0.22</v>
+      </c>
+      <c r="C37">
         <f>rawData!C122</f>
-        <v>0.22</v>
-      </c>
-      <c r="C37">
+        <v>0.21</v>
+      </c>
+      <c r="D37">
         <f>rawData!D122</f>
-        <v>0.21</v>
-      </c>
-      <c r="D37">
+        <v>0.43</v>
+      </c>
+      <c r="E37">
         <f>rawData!E122</f>
-        <v>0.43</v>
-      </c>
-      <c r="E37">
-        <f>rawData!F122</f>
         <v>0.14000000000000001</v>
       </c>
     </row>
     <row r="38" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A38">
+        <f>rawData!A123</f>
+        <v>1996</v>
+      </c>
+      <c r="B38">
         <f>rawData!B123</f>
-        <v>1996</v>
-      </c>
-      <c r="B38">
+        <v>0.23</v>
+      </c>
+      <c r="C38">
         <f>rawData!C123</f>
-        <v>0.23</v>
-      </c>
-      <c r="C38">
+        <v>0.2</v>
+      </c>
+      <c r="D38">
         <f>rawData!D123</f>
-        <v>0.2</v>
-      </c>
-      <c r="D38">
+        <v>0.43</v>
+      </c>
+      <c r="E38">
         <f>rawData!E123</f>
-        <v>0.43</v>
-      </c>
-      <c r="E38">
-        <f>rawData!F123</f>
         <v>0.14000000000000001</v>
       </c>
     </row>
     <row r="39" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A39">
+        <f>rawData!A124</f>
+        <v>1997</v>
+      </c>
+      <c r="B39">
         <f>rawData!B124</f>
-        <v>1997</v>
-      </c>
-      <c r="B39">
+        <v>0.22</v>
+      </c>
+      <c r="C39">
         <f>rawData!C124</f>
-        <v>0.22</v>
-      </c>
-      <c r="C39">
+        <v>0.2</v>
+      </c>
+      <c r="D39">
         <f>rawData!D124</f>
-        <v>0.2</v>
-      </c>
-      <c r="D39">
+        <v>0.43</v>
+      </c>
+      <c r="E39">
         <f>rawData!E124</f>
-        <v>0.43</v>
-      </c>
-      <c r="E39">
-        <f>rawData!F124</f>
         <v>0.15</v>
       </c>
     </row>
     <row r="40" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A40">
+        <f>rawData!A125</f>
+        <v>1998</v>
+      </c>
+      <c r="B40">
         <f>rawData!B125</f>
-        <v>1998</v>
-      </c>
-      <c r="B40">
+        <v>0.22</v>
+      </c>
+      <c r="C40">
         <f>rawData!C125</f>
-        <v>0.22</v>
-      </c>
-      <c r="C40">
+        <v>0.21</v>
+      </c>
+      <c r="D40">
         <f>rawData!D125</f>
-        <v>0.21</v>
-      </c>
-      <c r="D40">
+        <v>0.4</v>
+      </c>
+      <c r="E40">
         <f>rawData!E125</f>
-        <v>0.4</v>
-      </c>
-      <c r="E40">
-        <f>rawData!F125</f>
         <v>0.16</v>
       </c>
     </row>
     <row r="41" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A41">
+        <f>rawData!A126</f>
+        <v>1999</v>
+      </c>
+      <c r="B41">
         <f>rawData!B126</f>
-        <v>1999</v>
-      </c>
-      <c r="B41">
+        <v>0.23</v>
+      </c>
+      <c r="C41">
         <f>rawData!C126</f>
-        <v>0.23</v>
-      </c>
-      <c r="C41">
+        <v>0.19</v>
+      </c>
+      <c r="D41">
         <f>rawData!D126</f>
-        <v>0.19</v>
-      </c>
-      <c r="D41">
+        <v>0.42</v>
+      </c>
+      <c r="E41">
         <f>rawData!E126</f>
-        <v>0.42</v>
-      </c>
-      <c r="E41">
-        <f>rawData!F126</f>
         <v>0.16</v>
       </c>
     </row>
     <row r="42" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A42">
+        <f>rawData!A127</f>
+        <v>2000</v>
+      </c>
+      <c r="B42">
         <f>rawData!B127</f>
-        <v>2000</v>
-      </c>
-      <c r="B42">
+        <v>0.24</v>
+      </c>
+      <c r="C42">
         <f>rawData!C127</f>
-        <v>0.24</v>
-      </c>
-      <c r="C42">
+        <v>0.21</v>
+      </c>
+      <c r="D42">
         <f>rawData!D127</f>
-        <v>0.21</v>
-      </c>
-      <c r="D42">
+        <v>0.41</v>
+      </c>
+      <c r="E42">
         <f>rawData!E127</f>
-        <v>0.41</v>
-      </c>
-      <c r="E42">
-        <f>rawData!F127</f>
         <v>0.15</v>
       </c>
     </row>
@@ -3129,10 +3126,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A3:R127"/>
+  <dimension ref="A3:Q127"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="P73" sqref="P73"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A84" sqref="A84:E127"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -3140,25 +3137,28 @@
     <col min="11" max="11" width="15.109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="3" spans="2:15" x14ac:dyDescent="0.3">
-      <c r="B3" s="3" t="s">
+    <row r="3" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A3" s="3" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="6" spans="2:15" x14ac:dyDescent="0.3">
+      <c r="B3" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="6" spans="1:15" x14ac:dyDescent="0.3">
       <c r="K6" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="8" spans="2:15" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:15" x14ac:dyDescent="0.3">
       <c r="K8" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="L8" s="1">
         <v>0.47</v>
       </c>
     </row>
-    <row r="9" spans="2:15" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:15" x14ac:dyDescent="0.3">
       <c r="K9" t="s">
         <v>4</v>
       </c>
@@ -3166,7 +3166,7 @@
         <v>0.11</v>
       </c>
     </row>
-    <row r="10" spans="2:15" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:15" x14ac:dyDescent="0.3">
       <c r="K10" t="s">
         <v>5</v>
       </c>
@@ -3174,15 +3174,15 @@
         <v>0.32</v>
       </c>
     </row>
-    <row r="11" spans="2:15" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:15" x14ac:dyDescent="0.3">
       <c r="K11" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="L11" s="1">
         <v>0.1</v>
       </c>
     </row>
-    <row r="12" spans="2:15" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:15" x14ac:dyDescent="0.3">
       <c r="K12" t="s">
         <v>2</v>
       </c>
@@ -3191,12 +3191,12 @@
         <v>0.99999999999999989</v>
       </c>
     </row>
-    <row r="14" spans="2:15" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:15" x14ac:dyDescent="0.3">
       <c r="K14" t="s">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="L14" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="M14" t="s">
         <v>4</v>
@@ -3205,10 +3205,10 @@
         <v>5</v>
       </c>
       <c r="O14" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="15" spans="2:15" x14ac:dyDescent="0.3">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="15" spans="1:15" x14ac:dyDescent="0.3">
       <c r="K15">
         <v>1995</v>
       </c>
@@ -3225,7 +3225,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="16" spans="2:15" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:15" x14ac:dyDescent="0.3">
       <c r="K16">
         <v>1996</v>
       </c>
@@ -3278,7 +3278,7 @@
     </row>
     <row r="64" spans="3:8" x14ac:dyDescent="0.3">
       <c r="C64" s="3" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="D64" s="3"/>
       <c r="E64" s="3"/>
@@ -3286,18 +3286,47 @@
       <c r="G64" s="3"/>
       <c r="H64" s="3"/>
     </row>
-    <row r="66" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:17" x14ac:dyDescent="0.3">
       <c r="B66" s="3" t="s">
         <v>6</v>
       </c>
       <c r="C66" t="s">
+        <v>21</v>
+      </c>
+      <c r="I66" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="67" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="I67" t="s">
         <v>7</v>
       </c>
-      <c r="J66" t="s">
+      <c r="J67" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="68" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="K67" t="s">
+        <v>9</v>
+      </c>
+      <c r="L67" t="s">
+        <v>10</v>
+      </c>
+      <c r="M67" t="s">
+        <v>11</v>
+      </c>
+      <c r="N67" t="s">
+        <v>12</v>
+      </c>
+      <c r="O67" t="s">
+        <v>13</v>
+      </c>
+      <c r="P67" t="s">
+        <v>14</v>
+      </c>
+      <c r="Q67" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="68" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A68" t="str">
         <f>[1]sectorsplit2!A4</f>
         <v>Year</v>
@@ -3326,11 +3355,8 @@
         <f>[1]sectorsplit2!W4</f>
         <v>Total</v>
       </c>
-      <c r="J68" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="69" spans="1:18" x14ac:dyDescent="0.3">
+    </row>
+    <row r="69" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A69">
         <f>[1]sectorsplit2!A5</f>
         <v>1998</v>
@@ -3359,11 +3385,8 @@
         <f>[1]sectorsplit2!W5</f>
         <v>1</v>
       </c>
-      <c r="J69" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="70" spans="1:18" x14ac:dyDescent="0.3">
+    </row>
+    <row r="70" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A70">
         <f>[1]sectorsplit2!A6</f>
         <v>1999</v>
@@ -3392,35 +3415,8 @@
         <f>[1]sectorsplit2!W6</f>
         <v>1</v>
       </c>
-      <c r="J70" t="s">
-        <v>11</v>
-      </c>
-      <c r="K70" t="s">
-        <v>12</v>
-      </c>
-      <c r="L70" t="s">
-        <v>13</v>
-      </c>
-      <c r="M70" t="s">
-        <v>14</v>
-      </c>
-      <c r="N70" t="s">
-        <v>15</v>
-      </c>
-      <c r="O70" t="s">
-        <v>16</v>
-      </c>
-      <c r="P70" t="s">
-        <v>17</v>
-      </c>
-      <c r="Q70" t="s">
-        <v>18</v>
-      </c>
-      <c r="R70" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="71" spans="1:18" x14ac:dyDescent="0.3">
+    </row>
+    <row r="71" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A71">
         <f>[1]sectorsplit2!A7</f>
         <v>2000</v>
@@ -3450,7 +3446,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="72" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A72">
         <f>[1]sectorsplit2!A8</f>
         <v>2001</v>
@@ -3480,7 +3476,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="73" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A73">
         <f>[1]sectorsplit2!A9</f>
         <v>2002</v>
@@ -3510,7 +3506,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="74" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A74">
         <f>[1]sectorsplit2!A10</f>
         <v>2003</v>
@@ -3540,7 +3536,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="75" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A75">
         <f>[1]sectorsplit2!A11</f>
         <v>2004</v>
@@ -3570,7 +3566,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="76" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A76">
         <f>[1]sectorsplit2!A12</f>
         <v>2005</v>
@@ -3600,7 +3596,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="77" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="77" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A77">
         <f>[1]sectorsplit2!A13</f>
         <v>2006</v>
@@ -3630,7 +3626,7 @@
         <v>0.99999999999999989</v>
       </c>
     </row>
-    <row r="78" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="78" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A78">
         <f>[1]sectorsplit2!A14</f>
         <v>2007</v>
@@ -3660,7 +3656,7 @@
         <v>0.99999999999999989</v>
       </c>
     </row>
-    <row r="79" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="79" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A79">
         <f>[1]sectorsplit2!A15</f>
         <v>2008</v>
@@ -3690,7 +3686,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="80" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="80" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A80">
         <f>[1]sectorsplit2!A16</f>
         <v>2009</v>
@@ -3767,930 +3763,933 @@
       <c r="G83" s="2"/>
     </row>
     <row r="84" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="B84" s="3" t="s">
-        <v>0</v>
+      <c r="A84" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="B84" t="s">
+        <v>22</v>
       </c>
     </row>
     <row r="86" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="B86" t="str">
+      <c r="A86" t="str">
         <f>[2]Steel_Split!B89</f>
         <v>Year</v>
       </c>
-      <c r="C86" t="str">
+      <c r="B86" t="str">
         <f>[2]Steel_Split!C89</f>
         <v>Transportation</v>
       </c>
-      <c r="D86" t="str">
+      <c r="C86" t="str">
         <f>[2]Steel_Split!D89</f>
         <v>Machinery</v>
       </c>
-      <c r="E86" t="str">
+      <c r="D86" t="str">
         <f>[2]Steel_Split!E89</f>
         <v>Construction</v>
       </c>
-      <c r="F86" t="str">
+      <c r="E86" t="str">
         <f>[2]Steel_Split!F89</f>
         <v>Products</v>
       </c>
     </row>
     <row r="87" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="B87">
+      <c r="A87">
         <f>[2]Steel_Split!B90</f>
         <v>1960</v>
       </c>
-      <c r="C87" s="4">
+      <c r="B87" s="4">
         <f>[2]Steel_Split!C90</f>
         <v>0.25</v>
       </c>
-      <c r="D87" s="4">
+      <c r="C87" s="4">
         <f>[2]Steel_Split!D90</f>
         <v>0.28999999999999998</v>
       </c>
-      <c r="E87" s="4">
+      <c r="D87" s="4">
         <f>[2]Steel_Split!E90</f>
         <v>0.32</v>
       </c>
-      <c r="F87" s="4">
+      <c r="E87" s="4">
         <f>[2]Steel_Split!F90</f>
         <v>0.14000000000000001</v>
       </c>
     </row>
     <row r="88" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="B88">
+      <c r="A88">
         <f>[2]Steel_Split!B91</f>
         <v>1961</v>
       </c>
-      <c r="C88" s="4">
+      <c r="B88" s="4">
         <f>[2]Steel_Split!C91</f>
         <v>0.24</v>
       </c>
-      <c r="D88" s="4">
+      <c r="C88" s="4">
         <f>[2]Steel_Split!D91</f>
         <v>0.28000000000000003</v>
       </c>
-      <c r="E88" s="4">
+      <c r="D88" s="4">
         <f>[2]Steel_Split!E91</f>
         <v>0.33</v>
       </c>
-      <c r="F88" s="4">
+      <c r="E88" s="4">
         <f>[2]Steel_Split!F91</f>
         <v>0.15</v>
       </c>
     </row>
     <row r="89" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="B89">
+      <c r="A89">
         <f>[2]Steel_Split!B92</f>
         <v>1962</v>
       </c>
-      <c r="C89" s="4">
+      <c r="B89" s="4">
         <f>[2]Steel_Split!C92</f>
         <v>0.25</v>
       </c>
-      <c r="D89" s="4">
+      <c r="C89" s="4">
         <f>[2]Steel_Split!D92</f>
         <v>0.28000000000000003</v>
       </c>
-      <c r="E89" s="4">
+      <c r="D89" s="4">
         <f>[2]Steel_Split!E92</f>
         <v>0.31</v>
       </c>
-      <c r="F89" s="4">
+      <c r="E89" s="4">
         <f>[2]Steel_Split!F92</f>
         <v>0.15</v>
       </c>
     </row>
     <row r="90" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="B90">
+      <c r="A90">
         <f>[2]Steel_Split!B93</f>
         <v>1963</v>
       </c>
-      <c r="C90" s="4">
+      <c r="B90" s="4">
         <f>[2]Steel_Split!C93</f>
         <v>0.26</v>
       </c>
-      <c r="D90" s="4">
+      <c r="C90" s="4">
         <f>[2]Steel_Split!D93</f>
         <v>0.28999999999999998</v>
       </c>
-      <c r="E90" s="4">
+      <c r="D90" s="4">
         <f>[2]Steel_Split!E93</f>
         <v>0.31</v>
       </c>
-      <c r="F90" s="4">
+      <c r="E90" s="4">
         <f>[2]Steel_Split!F93</f>
         <v>0.15</v>
       </c>
     </row>
     <row r="91" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="B91">
+      <c r="A91">
         <f>[2]Steel_Split!B94</f>
         <v>1964</v>
       </c>
-      <c r="C91" s="4">
+      <c r="B91" s="4">
         <f>[2]Steel_Split!C94</f>
         <v>0.25</v>
       </c>
-      <c r="D91" s="4">
+      <c r="C91" s="4">
         <f>[2]Steel_Split!D94</f>
         <v>0.31</v>
       </c>
-      <c r="E91" s="4">
+      <c r="D91" s="4">
         <f>[2]Steel_Split!E94</f>
         <v>0.3</v>
       </c>
-      <c r="F91" s="4">
+      <c r="E91" s="4">
         <f>[2]Steel_Split!F94</f>
         <v>0.15</v>
       </c>
     </row>
     <row r="92" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="B92">
+      <c r="A92">
         <f>[2]Steel_Split!B95</f>
         <v>1965</v>
       </c>
-      <c r="C92" s="4">
+      <c r="B92" s="4">
         <f>[2]Steel_Split!C95</f>
         <v>0.24</v>
       </c>
-      <c r="D92" s="4">
+      <c r="C92" s="4">
         <f>[2]Steel_Split!D95</f>
         <v>0.31</v>
       </c>
-      <c r="E92" s="4">
+      <c r="D92" s="4">
         <f>[2]Steel_Split!E95</f>
         <v>0.31</v>
       </c>
-      <c r="F92" s="4">
+      <c r="E92" s="4">
         <f>[2]Steel_Split!F95</f>
         <v>0.14000000000000001</v>
       </c>
     </row>
     <row r="93" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="B93">
+      <c r="A93">
         <f>[2]Steel_Split!B96</f>
         <v>1966</v>
       </c>
+      <c r="B93" s="4">
+        <f>[2]Steel_Split!C96</f>
+        <v>0</v>
+      </c>
       <c r="C93" s="4">
-        <f>[2]Steel_Split!C96</f>
+        <f>[2]Steel_Split!D96</f>
         <v>0</v>
       </c>
       <c r="D93" s="4">
-        <f>[2]Steel_Split!D96</f>
+        <f>[2]Steel_Split!E96</f>
         <v>0</v>
       </c>
       <c r="E93" s="4">
-        <f>[2]Steel_Split!E96</f>
-        <v>0</v>
-      </c>
-      <c r="F93" s="4">
         <f>[2]Steel_Split!F96</f>
         <v>0</v>
       </c>
     </row>
     <row r="94" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="B94">
+      <c r="A94">
         <f>[2]Steel_Split!B97</f>
         <v>1967</v>
       </c>
+      <c r="B94" s="4">
+        <f>[2]Steel_Split!C97</f>
+        <v>0</v>
+      </c>
       <c r="C94" s="4">
-        <f>[2]Steel_Split!C97</f>
+        <f>[2]Steel_Split!D97</f>
         <v>0</v>
       </c>
       <c r="D94" s="4">
-        <f>[2]Steel_Split!D97</f>
+        <f>[2]Steel_Split!E97</f>
         <v>0</v>
       </c>
       <c r="E94" s="4">
-        <f>[2]Steel_Split!E97</f>
-        <v>0</v>
-      </c>
-      <c r="F94" s="4">
         <f>[2]Steel_Split!F97</f>
         <v>0</v>
       </c>
     </row>
     <row r="95" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="B95">
+      <c r="A95">
         <f>[2]Steel_Split!B98</f>
         <v>1968</v>
       </c>
+      <c r="B95" s="4">
+        <f>[2]Steel_Split!C98</f>
+        <v>0</v>
+      </c>
       <c r="C95" s="4">
-        <f>[2]Steel_Split!C98</f>
+        <f>[2]Steel_Split!D98</f>
         <v>0</v>
       </c>
       <c r="D95" s="4">
-        <f>[2]Steel_Split!D98</f>
+        <f>[2]Steel_Split!E98</f>
         <v>0</v>
       </c>
       <c r="E95" s="4">
-        <f>[2]Steel_Split!E98</f>
-        <v>0</v>
-      </c>
-      <c r="F95" s="4">
         <f>[2]Steel_Split!F98</f>
         <v>0</v>
       </c>
     </row>
     <row r="96" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="B96">
+      <c r="A96">
         <f>[2]Steel_Split!B99</f>
         <v>1969</v>
       </c>
+      <c r="B96" s="4">
+        <f>[2]Steel_Split!C99</f>
+        <v>0</v>
+      </c>
       <c r="C96" s="4">
-        <f>[2]Steel_Split!C99</f>
+        <f>[2]Steel_Split!D99</f>
         <v>0</v>
       </c>
       <c r="D96" s="4">
-        <f>[2]Steel_Split!D99</f>
+        <f>[2]Steel_Split!E99</f>
         <v>0</v>
       </c>
       <c r="E96" s="4">
-        <f>[2]Steel_Split!E99</f>
-        <v>0</v>
-      </c>
-      <c r="F96" s="4">
         <f>[2]Steel_Split!F99</f>
         <v>0</v>
       </c>
     </row>
-    <row r="97" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B97">
+    <row r="97" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A97">
         <f>[2]Steel_Split!B100</f>
         <v>1970</v>
       </c>
-      <c r="C97" s="4">
+      <c r="B97" s="4">
         <f>[2]Steel_Split!C100</f>
         <v>0.31</v>
       </c>
-      <c r="D97" s="4">
+      <c r="C97" s="4">
         <f>[2]Steel_Split!D100</f>
         <v>0.22</v>
       </c>
-      <c r="E97" s="4">
+      <c r="D97" s="4">
         <f>[2]Steel_Split!E100</f>
         <v>0.24</v>
       </c>
-      <c r="F97" s="4">
+      <c r="E97" s="4">
         <f>[2]Steel_Split!F100</f>
         <v>0.23</v>
       </c>
     </row>
-    <row r="98" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B98">
+    <row r="98" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A98">
         <f>[2]Steel_Split!B101</f>
         <v>1971</v>
       </c>
+      <c r="B98" s="4">
+        <f>[2]Steel_Split!C101</f>
+        <v>0</v>
+      </c>
       <c r="C98" s="4">
-        <f>[2]Steel_Split!C101</f>
+        <f>[2]Steel_Split!D101</f>
         <v>0</v>
       </c>
       <c r="D98" s="4">
-        <f>[2]Steel_Split!D101</f>
+        <f>[2]Steel_Split!E101</f>
         <v>0</v>
       </c>
       <c r="E98" s="4">
-        <f>[2]Steel_Split!E101</f>
-        <v>0</v>
-      </c>
-      <c r="F98" s="4">
         <f>[2]Steel_Split!F101</f>
         <v>0</v>
       </c>
     </row>
-    <row r="99" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B99">
+    <row r="99" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A99">
         <f>[2]Steel_Split!B102</f>
         <v>1972</v>
       </c>
+      <c r="B99" s="4">
+        <f>[2]Steel_Split!C102</f>
+        <v>0</v>
+      </c>
       <c r="C99" s="4">
-        <f>[2]Steel_Split!C102</f>
+        <f>[2]Steel_Split!D102</f>
         <v>0</v>
       </c>
       <c r="D99" s="4">
-        <f>[2]Steel_Split!D102</f>
+        <f>[2]Steel_Split!E102</f>
         <v>0</v>
       </c>
       <c r="E99" s="4">
-        <f>[2]Steel_Split!E102</f>
-        <v>0</v>
-      </c>
-      <c r="F99" s="4">
         <f>[2]Steel_Split!F102</f>
         <v>0</v>
       </c>
     </row>
-    <row r="100" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B100">
+    <row r="100" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A100">
         <f>[2]Steel_Split!B103</f>
         <v>1973</v>
       </c>
+      <c r="B100" s="4">
+        <f>[2]Steel_Split!C103</f>
+        <v>0</v>
+      </c>
       <c r="C100" s="4">
-        <f>[2]Steel_Split!C103</f>
+        <f>[2]Steel_Split!D103</f>
         <v>0</v>
       </c>
       <c r="D100" s="4">
-        <f>[2]Steel_Split!D103</f>
+        <f>[2]Steel_Split!E103</f>
         <v>0</v>
       </c>
       <c r="E100" s="4">
-        <f>[2]Steel_Split!E103</f>
-        <v>0</v>
-      </c>
-      <c r="F100" s="4">
         <f>[2]Steel_Split!F103</f>
         <v>0</v>
       </c>
     </row>
-    <row r="101" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B101">
+    <row r="101" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A101">
         <f>[2]Steel_Split!B104</f>
         <v>1974</v>
       </c>
-      <c r="C101" s="4">
+      <c r="B101" s="4">
         <f>[2]Steel_Split!C104</f>
         <v>0.27</v>
       </c>
-      <c r="D101" s="4">
+      <c r="C101" s="4">
         <f>[2]Steel_Split!D104</f>
         <v>0.2</v>
       </c>
-      <c r="E101" s="4">
+      <c r="D101" s="4">
         <f>[2]Steel_Split!E104</f>
         <v>0.33</v>
       </c>
-      <c r="F101" s="4">
+      <c r="E101" s="4">
         <f>[2]Steel_Split!F104</f>
         <v>0.2</v>
       </c>
     </row>
-    <row r="102" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B102">
+    <row r="102" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A102">
         <f>[2]Steel_Split!B105</f>
         <v>1975</v>
       </c>
-      <c r="C102" s="4">
+      <c r="B102" s="4">
         <f>[2]Steel_Split!C105</f>
         <v>0.23</v>
       </c>
-      <c r="D102" s="4">
+      <c r="C102" s="4">
         <f>[2]Steel_Split!D105</f>
         <v>0.24</v>
       </c>
-      <c r="E102" s="4">
+      <c r="D102" s="4">
         <f>[2]Steel_Split!E105</f>
         <v>0.32</v>
       </c>
-      <c r="F102" s="4">
+      <c r="E102" s="4">
         <f>[2]Steel_Split!F105</f>
         <v>0.21</v>
       </c>
     </row>
-    <row r="103" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B103">
+    <row r="103" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A103">
         <f>[2]Steel_Split!B106</f>
         <v>1976</v>
       </c>
-      <c r="C103" s="4">
+      <c r="B103" s="4">
         <f>[2]Steel_Split!C106</f>
         <v>0.23</v>
       </c>
-      <c r="D103" s="4">
+      <c r="C103" s="4">
         <f>[2]Steel_Split!D106</f>
         <v>0.24</v>
       </c>
-      <c r="E103" s="4">
+      <c r="D103" s="4">
         <f>[2]Steel_Split!E106</f>
         <v>0.3</v>
       </c>
-      <c r="F103" s="4">
+      <c r="E103" s="4">
         <f>[2]Steel_Split!F106</f>
         <v>0.23</v>
       </c>
     </row>
-    <row r="104" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B104">
+    <row r="104" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A104">
         <f>[2]Steel_Split!B107</f>
         <v>1977</v>
       </c>
-      <c r="C104" s="4">
+      <c r="B104" s="4">
         <f>[2]Steel_Split!C107</f>
         <v>0.23</v>
       </c>
-      <c r="D104" s="4">
+      <c r="C104" s="4">
         <f>[2]Steel_Split!D107</f>
         <v>0.25</v>
       </c>
-      <c r="E104" s="4">
+      <c r="D104" s="4">
         <f>[2]Steel_Split!E107</f>
         <v>0.28999999999999998</v>
       </c>
-      <c r="F104" s="4">
+      <c r="E104" s="4">
         <f>[2]Steel_Split!F107</f>
         <v>0.23</v>
       </c>
     </row>
-    <row r="105" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B105">
+    <row r="105" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A105">
         <f>[2]Steel_Split!B108</f>
         <v>1978</v>
       </c>
-      <c r="C105" s="4">
+      <c r="B105" s="4">
         <f>[2]Steel_Split!C108</f>
         <v>0.22</v>
       </c>
-      <c r="D105" s="4">
+      <c r="C105" s="4">
         <f>[2]Steel_Split!D108</f>
         <v>0.25</v>
       </c>
-      <c r="E105" s="4">
+      <c r="D105" s="4">
         <f>[2]Steel_Split!E108</f>
         <v>0.3</v>
       </c>
-      <c r="F105" s="4">
+      <c r="E105" s="4">
         <f>[2]Steel_Split!F108</f>
         <v>0.23</v>
       </c>
     </row>
-    <row r="106" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B106">
+    <row r="106" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A106">
         <f>[2]Steel_Split!B109</f>
         <v>1979</v>
       </c>
-      <c r="C106" s="4">
+      <c r="B106" s="4">
         <f>[2]Steel_Split!C109</f>
         <v>0.2</v>
       </c>
-      <c r="D106" s="4">
+      <c r="C106" s="4">
         <f>[2]Steel_Split!D109</f>
         <v>0.24</v>
       </c>
-      <c r="E106" s="4">
+      <c r="D106" s="4">
         <f>[2]Steel_Split!E109</f>
         <v>0.32</v>
       </c>
-      <c r="F106" s="4">
+      <c r="E106" s="4">
         <f>[2]Steel_Split!F109</f>
         <v>0.24</v>
       </c>
     </row>
-    <row r="107" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B107">
+    <row r="107" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A107">
         <f>[2]Steel_Split!B110</f>
         <v>1980</v>
       </c>
-      <c r="C107" s="4">
+      <c r="B107" s="4">
         <f>[2]Steel_Split!C110</f>
         <v>0.2</v>
       </c>
-      <c r="D107" s="4">
+      <c r="C107" s="4">
         <f>[2]Steel_Split!D110</f>
         <v>0.24</v>
       </c>
-      <c r="E107" s="4">
+      <c r="D107" s="4">
         <f>[2]Steel_Split!E110</f>
         <v>0.32</v>
       </c>
-      <c r="F107" s="4">
+      <c r="E107" s="4">
         <f>[2]Steel_Split!F110</f>
         <v>0.24</v>
       </c>
     </row>
-    <row r="108" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B108">
+    <row r="108" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A108">
         <f>[2]Steel_Split!B111</f>
         <v>1981</v>
       </c>
-      <c r="C108" s="4">
+      <c r="B108" s="4">
         <f>[2]Steel_Split!C111</f>
         <v>0.19</v>
       </c>
-      <c r="D108" s="4">
+      <c r="C108" s="4">
         <f>[2]Steel_Split!D111</f>
         <v>0.22</v>
       </c>
-      <c r="E108" s="4">
+      <c r="D108" s="4">
         <f>[2]Steel_Split!E111</f>
         <v>0.33</v>
       </c>
-      <c r="F108" s="4">
+      <c r="E108" s="4">
         <f>[2]Steel_Split!F111</f>
         <v>0.26</v>
       </c>
     </row>
-    <row r="109" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B109">
+    <row r="109" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A109">
         <f>[2]Steel_Split!B112</f>
         <v>1982</v>
       </c>
-      <c r="C109" s="4">
+      <c r="B109" s="4">
         <f>[2]Steel_Split!C112</f>
         <v>0.19</v>
       </c>
-      <c r="D109" s="4">
+      <c r="C109" s="4">
         <f>[2]Steel_Split!D112</f>
         <v>0.22</v>
       </c>
-      <c r="E109" s="4">
+      <c r="D109" s="4">
         <f>[2]Steel_Split!E112</f>
         <v>0.33</v>
       </c>
-      <c r="F109" s="4">
+      <c r="E109" s="4">
         <f>[2]Steel_Split!F112</f>
         <v>0.26</v>
       </c>
     </row>
-    <row r="110" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B110">
+    <row r="110" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A110">
         <f>[2]Steel_Split!B113</f>
         <v>1983</v>
       </c>
-      <c r="C110" s="4">
+      <c r="B110" s="4">
         <f>[2]Steel_Split!C113</f>
         <v>0.18</v>
       </c>
-      <c r="D110" s="4">
+      <c r="C110" s="4">
         <f>[2]Steel_Split!D113</f>
         <v>0.22</v>
       </c>
-      <c r="E110" s="4">
+      <c r="D110" s="4">
         <f>[2]Steel_Split!E113</f>
         <v>0.33</v>
       </c>
-      <c r="F110" s="4">
+      <c r="E110" s="4">
         <f>[2]Steel_Split!F113</f>
         <v>0.27</v>
       </c>
     </row>
-    <row r="111" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B111">
+    <row r="111" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A111">
         <f>[2]Steel_Split!B114</f>
         <v>1984</v>
       </c>
-      <c r="C111" s="4">
+      <c r="B111" s="4">
         <f>[2]Steel_Split!C114</f>
         <v>0.17</v>
       </c>
-      <c r="D111" s="4">
+      <c r="C111" s="4">
         <f>[2]Steel_Split!D114</f>
         <v>0.22</v>
       </c>
-      <c r="E111" s="4">
+      <c r="D111" s="4">
         <f>[2]Steel_Split!E114</f>
         <v>0.32</v>
       </c>
-      <c r="F111" s="4">
+      <c r="E111" s="4">
         <f>[2]Steel_Split!F114</f>
         <v>0.28999999999999998</v>
       </c>
     </row>
-    <row r="112" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B112">
+    <row r="112" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A112">
         <f>[2]Steel_Split!B115</f>
         <v>1985</v>
       </c>
-      <c r="C112" s="4">
+      <c r="B112" s="4">
         <f>[2]Steel_Split!C115</f>
         <v>0.19</v>
       </c>
-      <c r="D112" s="4">
+      <c r="C112" s="4">
         <f>[2]Steel_Split!D115</f>
         <v>0.24</v>
       </c>
-      <c r="E112" s="4">
+      <c r="D112" s="4">
         <f>[2]Steel_Split!E115</f>
         <v>0.31</v>
       </c>
-      <c r="F112" s="4">
+      <c r="E112" s="4">
         <f>[2]Steel_Split!F115</f>
         <v>0.26</v>
       </c>
     </row>
-    <row r="113" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B113">
+    <row r="113" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A113">
         <f>[2]Steel_Split!B116</f>
         <v>1986</v>
       </c>
-      <c r="C113" s="4">
+      <c r="B113" s="4">
         <f>[2]Steel_Split!C116</f>
         <v>0.17</v>
       </c>
-      <c r="D113" s="4">
+      <c r="C113" s="4">
         <f>[2]Steel_Split!D116</f>
         <v>0.23</v>
       </c>
-      <c r="E113" s="4">
+      <c r="D113" s="4">
         <f>[2]Steel_Split!E116</f>
         <v>0.34</v>
       </c>
-      <c r="F113" s="4">
+      <c r="E113" s="4">
         <f>[2]Steel_Split!F116</f>
         <v>0.26</v>
       </c>
     </row>
-    <row r="114" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B114">
+    <row r="114" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A114">
         <f>[2]Steel_Split!B117</f>
         <v>1987</v>
       </c>
-      <c r="C114" s="4">
+      <c r="B114" s="4">
         <f>[2]Steel_Split!C117</f>
         <v>0.17</v>
       </c>
-      <c r="D114" s="4">
+      <c r="C114" s="4">
         <f>[2]Steel_Split!D117</f>
         <v>0.22</v>
       </c>
-      <c r="E114" s="4">
+      <c r="D114" s="4">
         <f>[2]Steel_Split!E117</f>
         <v>0.36</v>
       </c>
-      <c r="F114" s="4">
+      <c r="E114" s="4">
         <f>[2]Steel_Split!F117</f>
         <v>0.25</v>
       </c>
     </row>
-    <row r="115" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B115">
+    <row r="115" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A115">
         <f>[2]Steel_Split!B118</f>
         <v>1988</v>
       </c>
-      <c r="C115" s="4">
+      <c r="B115" s="4">
         <f>[2]Steel_Split!C118</f>
         <v>0.17</v>
       </c>
-      <c r="D115" s="4">
+      <c r="C115" s="4">
         <f>[2]Steel_Split!D118</f>
         <v>0.21</v>
       </c>
-      <c r="E115" s="4">
+      <c r="D115" s="4">
         <f>[2]Steel_Split!E118</f>
         <v>0.39</v>
       </c>
-      <c r="F115" s="4">
+      <c r="E115" s="4">
         <f>[2]Steel_Split!F118</f>
         <v>0.23</v>
       </c>
     </row>
-    <row r="116" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B116">
+    <row r="116" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A116">
         <f>[2]Steel_Split!B119</f>
         <v>1989</v>
       </c>
-      <c r="C116" s="4">
+      <c r="B116" s="4">
         <f>[2]Steel_Split!C119</f>
         <v>0.15</v>
       </c>
-      <c r="D116" s="4">
+      <c r="C116" s="4">
         <f>[2]Steel_Split!D119</f>
         <v>0.22</v>
       </c>
-      <c r="E116" s="4">
+      <c r="D116" s="4">
         <f>[2]Steel_Split!E119</f>
         <v>0.41</v>
       </c>
-      <c r="F116" s="4">
+      <c r="E116" s="4">
         <f>[2]Steel_Split!F119</f>
         <v>0.22</v>
       </c>
     </row>
-    <row r="117" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B117">
+    <row r="117" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A117">
         <f>[2]Steel_Split!B120</f>
         <v>1990</v>
       </c>
-      <c r="C117" s="4">
+      <c r="B117" s="4">
         <f>[2]Steel_Split!C120</f>
         <v>0.17</v>
       </c>
-      <c r="D117" s="4">
+      <c r="C117" s="4">
         <f>[2]Steel_Split!D120</f>
         <v>0.23</v>
       </c>
-      <c r="E117" s="4">
+      <c r="D117" s="4">
         <f>[2]Steel_Split!E120</f>
         <v>0.43</v>
       </c>
-      <c r="F117" s="4">
+      <c r="E117" s="4">
         <f>[2]Steel_Split!F120</f>
         <v>0.17</v>
       </c>
     </row>
-    <row r="118" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B118">
+    <row r="118" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A118">
         <f>[2]Steel_Split!B121</f>
         <v>1991</v>
       </c>
-      <c r="C118" s="4">
+      <c r="B118" s="4">
         <f>[2]Steel_Split!C121</f>
         <v>0.17</v>
       </c>
-      <c r="D118" s="4">
+      <c r="C118" s="4">
         <f>[2]Steel_Split!D121</f>
         <v>0.21</v>
       </c>
-      <c r="E118" s="4">
+      <c r="D118" s="4">
         <f>[2]Steel_Split!E121</f>
         <v>0.45</v>
       </c>
-      <c r="F118" s="4">
+      <c r="E118" s="4">
         <f>[2]Steel_Split!F121</f>
         <v>0.18</v>
       </c>
     </row>
-    <row r="119" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B119">
+    <row r="119" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A119">
         <f>[2]Steel_Split!B122</f>
         <v>1992</v>
       </c>
-      <c r="C119" s="4">
+      <c r="B119" s="4">
         <f>[2]Steel_Split!C122</f>
         <v>0.19</v>
       </c>
-      <c r="D119" s="4">
+      <c r="C119" s="4">
         <f>[2]Steel_Split!D122</f>
         <v>0.22</v>
       </c>
-      <c r="E119" s="4">
+      <c r="D119" s="4">
         <f>[2]Steel_Split!E122</f>
         <v>0.41</v>
       </c>
-      <c r="F119" s="4">
+      <c r="E119" s="4">
         <f>[2]Steel_Split!F122</f>
         <v>0.18</v>
       </c>
     </row>
-    <row r="120" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B120">
+    <row r="120" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A120">
         <f>[2]Steel_Split!B123</f>
         <v>1993</v>
       </c>
-      <c r="C120" s="4">
+      <c r="B120" s="4">
         <f>[2]Steel_Split!C123</f>
         <v>0.23</v>
       </c>
-      <c r="D120" s="4">
+      <c r="C120" s="4">
         <f>[2]Steel_Split!D123</f>
         <v>0.2</v>
       </c>
-      <c r="E120" s="4">
+      <c r="D120" s="4">
         <f>[2]Steel_Split!E123</f>
         <v>0.41</v>
       </c>
-      <c r="F120" s="4">
+      <c r="E120" s="4">
         <f>[2]Steel_Split!F123</f>
         <v>0.16</v>
       </c>
     </row>
-    <row r="121" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B121">
+    <row r="121" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A121">
         <f>[2]Steel_Split!B124</f>
         <v>1994</v>
       </c>
-      <c r="C121" s="4">
+      <c r="B121" s="4">
         <f>[2]Steel_Split!C124</f>
         <v>0.22</v>
       </c>
-      <c r="D121" s="4">
+      <c r="C121" s="4">
         <f>[2]Steel_Split!D124</f>
         <v>0.2</v>
       </c>
-      <c r="E121" s="4">
+      <c r="D121" s="4">
         <f>[2]Steel_Split!E124</f>
         <v>0.42</v>
       </c>
-      <c r="F121" s="4">
+      <c r="E121" s="4">
         <f>[2]Steel_Split!F124</f>
         <v>0.16</v>
       </c>
     </row>
-    <row r="122" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B122">
+    <row r="122" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A122">
         <f>[2]Steel_Split!B125</f>
         <v>1995</v>
       </c>
-      <c r="C122" s="4">
+      <c r="B122" s="4">
         <f>[2]Steel_Split!C125</f>
         <v>0.22</v>
       </c>
-      <c r="D122" s="4">
+      <c r="C122" s="4">
         <f>[2]Steel_Split!D125</f>
         <v>0.21</v>
       </c>
-      <c r="E122" s="4">
+      <c r="D122" s="4">
         <f>[2]Steel_Split!E125</f>
         <v>0.43</v>
       </c>
-      <c r="F122" s="4">
+      <c r="E122" s="4">
         <f>[2]Steel_Split!F125</f>
         <v>0.14000000000000001</v>
       </c>
     </row>
-    <row r="123" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B123">
+    <row r="123" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A123">
         <f>[2]Steel_Split!B126</f>
         <v>1996</v>
       </c>
-      <c r="C123" s="4">
+      <c r="B123" s="4">
         <f>[2]Steel_Split!C126</f>
         <v>0.23</v>
       </c>
-      <c r="D123" s="4">
+      <c r="C123" s="4">
         <f>[2]Steel_Split!D126</f>
         <v>0.2</v>
       </c>
-      <c r="E123" s="4">
+      <c r="D123" s="4">
         <f>[2]Steel_Split!E126</f>
         <v>0.43</v>
       </c>
-      <c r="F123" s="4">
+      <c r="E123" s="4">
         <f>[2]Steel_Split!F126</f>
         <v>0.14000000000000001</v>
       </c>
     </row>
-    <row r="124" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B124">
+    <row r="124" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A124">
         <f>[2]Steel_Split!B127</f>
         <v>1997</v>
       </c>
-      <c r="C124" s="4">
+      <c r="B124" s="4">
         <f>[2]Steel_Split!C127</f>
         <v>0.22</v>
       </c>
-      <c r="D124" s="4">
+      <c r="C124" s="4">
         <f>[2]Steel_Split!D127</f>
         <v>0.2</v>
       </c>
-      <c r="E124" s="4">
+      <c r="D124" s="4">
         <f>[2]Steel_Split!E127</f>
         <v>0.43</v>
       </c>
-      <c r="F124" s="4">
+      <c r="E124" s="4">
         <f>[2]Steel_Split!F127</f>
         <v>0.15</v>
       </c>
     </row>
-    <row r="125" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B125">
+    <row r="125" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A125">
         <f>[2]Steel_Split!B128</f>
         <v>1998</v>
       </c>
-      <c r="C125" s="4">
+      <c r="B125" s="4">
         <f>[2]Steel_Split!C128</f>
         <v>0.22</v>
       </c>
-      <c r="D125" s="4">
+      <c r="C125" s="4">
         <f>[2]Steel_Split!D128</f>
         <v>0.21</v>
       </c>
-      <c r="E125" s="4">
+      <c r="D125" s="4">
         <f>[2]Steel_Split!E128</f>
         <v>0.4</v>
       </c>
-      <c r="F125" s="4">
+      <c r="E125" s="4">
         <f>[2]Steel_Split!F128</f>
         <v>0.16</v>
       </c>
     </row>
-    <row r="126" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B126">
+    <row r="126" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A126">
         <f>[2]Steel_Split!B129</f>
         <v>1999</v>
       </c>
-      <c r="C126" s="4">
+      <c r="B126" s="4">
         <f>[2]Steel_Split!C129</f>
         <v>0.23</v>
       </c>
-      <c r="D126" s="4">
+      <c r="C126" s="4">
         <f>[2]Steel_Split!D129</f>
         <v>0.19</v>
       </c>
-      <c r="E126" s="4">
+      <c r="D126" s="4">
         <f>[2]Steel_Split!E129</f>
         <v>0.42</v>
       </c>
-      <c r="F126" s="4">
+      <c r="E126" s="4">
         <f>[2]Steel_Split!F129</f>
         <v>0.16</v>
       </c>
     </row>
-    <row r="127" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B127">
+    <row r="127" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A127">
         <f>[2]Steel_Split!B130</f>
         <v>2000</v>
       </c>
-      <c r="C127" s="4">
+      <c r="B127" s="4">
         <f>[2]Steel_Split!C130</f>
         <v>0.24</v>
       </c>
-      <c r="D127" s="4">
+      <c r="C127" s="4">
         <f>[2]Steel_Split!D130</f>
         <v>0.21</v>
       </c>
-      <c r="E127" s="4">
+      <c r="D127" s="4">
         <f>[2]Steel_Split!E130</f>
         <v>0.41</v>
       </c>
-      <c r="F127" s="4">
+      <c r="E127" s="4">
         <f>[2]Steel_Split!F130</f>
         <v>0.15</v>
       </c>
